--- a/面签前端任务1.xlsx
+++ b/面签前端任务1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\员工贷文件\面签\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\员工贷文件\面签\webPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>编号</t>
   </si>
@@ -860,6 +860,14 @@
   </si>
   <si>
     <t>页面完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖海宁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖海宁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1012,50 +1020,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,7 +1372,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C21" sqref="C21:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,10 +1390,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1426,7 @@
       <c r="F2" s="4">
         <v>42741</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1439,7 +1447,7 @@
       <c r="F3" s="4">
         <v>42741</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1454,13 +1462,13 @@
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="21">
         <v>42744</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="21">
         <v>42748</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1471,13 +1479,13 @@
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1486,13 +1494,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1501,13 +1509,13 @@
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1516,13 +1524,13 @@
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1531,13 +1539,13 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1546,7 +1554,7 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
@@ -1565,7 +1573,7 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3" t="s">
         <v>87</v>
       </c>
@@ -1575,7 +1583,7 @@
       <c r="F11" s="4">
         <v>42752</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1586,7 +1594,7 @@
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3" t="s">
         <v>87</v>
       </c>
@@ -1596,7 +1604,7 @@
       <c r="F12" s="4">
         <v>42753</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1605,7 +1613,7 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
@@ -1615,7 +1623,7 @@
       <c r="F13" s="4">
         <v>42754</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1636,7 +1644,7 @@
       <c r="F14" s="4">
         <v>42741</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1657,7 +1665,7 @@
       <c r="F15" s="4">
         <v>42744</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1676,7 +1684,7 @@
       <c r="F16" s="4">
         <v>42745</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1695,7 +1703,7 @@
       <c r="F17" s="4">
         <v>42746</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1714,7 +1722,7 @@
       <c r="F18" s="4">
         <v>42747</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1767,13 +1775,13 @@
       <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="21">
         <v>42753</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="21">
         <v>42754</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -1786,9 +1794,9 @@
       <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -1801,9 +1809,9 @@
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1816,13 +1824,13 @@
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="21">
         <v>42755</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="21">
         <v>42755</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -1835,9 +1843,9 @@
       <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -1907,7 +1915,7 @@
         <v>89</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E29" s="4">
         <v>42755</v>
@@ -1970,10 +1978,10 @@
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="21">
         <v>42772</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="21">
         <v>42776</v>
       </c>
       <c r="G32" s="6"/>
@@ -1989,8 +1997,8 @@
       <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2004,8 +2012,8 @@
       <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2019,8 +2027,8 @@
       <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2034,8 +2042,8 @@
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2049,7 +2057,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E37" s="4">
         <v>42779</v>
@@ -2101,14 +2109,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G14:G18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E4:E9"/>
@@ -2122,6 +2122,14 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面签前端任务1.xlsx
+++ b/面签前端任务1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\员工贷文件\面签\webPage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mianqian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1020,18 +1020,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1052,18 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,10 +1390,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="F2" s="4">
         <v>42741</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="F3" s="4">
         <v>42741</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1462,13 +1462,13 @@
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="12">
         <v>42744</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="12">
         <v>42748</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1479,13 +1479,13 @@
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1494,13 +1494,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1509,13 +1509,13 @@
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1524,13 +1524,13 @@
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1539,13 +1539,13 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1554,7 +1554,7 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
         <v>87</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="F11" s="4">
         <v>42752</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
         <v>87</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="F12" s="4">
         <v>42753</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1613,7 +1613,7 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="F13" s="4">
         <v>42754</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1644,7 +1644,7 @@
       <c r="F14" s="4">
         <v>42741</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="F15" s="4">
         <v>42744</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1684,7 +1684,7 @@
       <c r="F16" s="4">
         <v>42745</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1703,7 +1703,7 @@
       <c r="F17" s="4">
         <v>42746</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1722,7 +1722,7 @@
       <c r="F18" s="4">
         <v>42747</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1775,13 +1775,13 @@
       <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="12">
         <v>42753</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="12">
         <v>42754</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -1794,9 +1794,9 @@
       <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -1809,9 +1809,9 @@
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1824,13 +1824,13 @@
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="12">
         <v>42755</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="12">
         <v>42755</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -1843,9 +1843,9 @@
       <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -1978,10 +1978,10 @@
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="12">
         <v>42772</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="12">
         <v>42776</v>
       </c>
       <c r="G32" s="6"/>
@@ -1997,8 +1997,8 @@
       <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2012,8 +2012,8 @@
       <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2027,8 +2027,8 @@
       <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2042,8 +2042,8 @@
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2065,7 +2065,9 @@
       <c r="F37" s="4">
         <v>42779</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
@@ -2109,6 +2111,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G14:G18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E4:E9"/>
@@ -2122,14 +2132,6 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面签前端任务1.xlsx
+++ b/面签前端任务1.xlsx
@@ -1020,50 +1020,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,10 +1390,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="F2" s="4">
         <v>42741</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="F3" s="4">
         <v>42741</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1462,13 +1462,13 @@
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="21">
         <v>42744</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="21">
         <v>42748</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1479,13 +1479,13 @@
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1494,13 +1494,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1509,13 +1509,13 @@
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1524,13 +1524,13 @@
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1539,13 +1539,13 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1554,7 +1554,7 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3" t="s">
         <v>87</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="F11" s="4">
         <v>42752</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3" t="s">
         <v>87</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="F12" s="4">
         <v>42753</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1613,7 +1613,7 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="F13" s="4">
         <v>42754</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1644,7 +1644,7 @@
       <c r="F14" s="4">
         <v>42741</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="F15" s="4">
         <v>42744</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1684,7 +1684,7 @@
       <c r="F16" s="4">
         <v>42745</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1703,7 +1703,7 @@
       <c r="F17" s="4">
         <v>42746</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1722,7 +1722,7 @@
       <c r="F18" s="4">
         <v>42747</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1775,13 +1775,13 @@
       <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="21">
         <v>42753</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="21">
         <v>42754</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -1794,9 +1794,9 @@
       <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -1809,9 +1809,9 @@
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1824,13 +1824,13 @@
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="21">
         <v>42755</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="21">
         <v>42755</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -1843,9 +1843,9 @@
       <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -1978,10 +1978,10 @@
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="21">
         <v>42772</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="21">
         <v>42776</v>
       </c>
       <c r="G32" s="6"/>
@@ -1997,8 +1997,8 @@
       <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2012,8 +2012,8 @@
       <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2027,8 +2027,8 @@
       <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2042,8 +2042,8 @@
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2065,9 +2065,7 @@
       <c r="F37" s="4">
         <v>42779</v>
       </c>
-      <c r="G37" s="6">
-        <v>11</v>
-      </c>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
@@ -2111,14 +2109,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G14:G18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E4:E9"/>
@@ -2132,6 +2122,14 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面签前端任务1.xlsx
+++ b/面签前端任务1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mianqian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\123\mianqian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>编号</t>
   </si>
@@ -868,6 +868,10 @@
   </si>
   <si>
     <t>肖海宁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯恺d0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1020,18 +1024,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1052,18 +1068,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,10 +1394,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1430,7 @@
       <c r="F2" s="4">
         <v>42741</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1447,7 +1451,7 @@
       <c r="F3" s="4">
         <v>42741</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1462,13 +1466,13 @@
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="12">
         <v>42744</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="12">
         <v>42748</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1479,13 +1483,13 @@
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1494,13 +1498,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1509,13 +1513,13 @@
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1524,13 +1528,13 @@
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1539,13 +1543,13 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1554,7 +1558,7 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
@@ -1573,7 +1577,7 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
         <v>87</v>
       </c>
@@ -1583,7 +1587,7 @@
       <c r="F11" s="4">
         <v>42752</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1594,7 +1598,7 @@
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
         <v>87</v>
       </c>
@@ -1604,7 +1608,7 @@
       <c r="F12" s="4">
         <v>42753</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1613,7 +1617,7 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
@@ -1623,7 +1627,7 @@
       <c r="F13" s="4">
         <v>42754</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1636,7 +1640,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4">
         <v>42740</v>
@@ -1644,7 +1648,7 @@
       <c r="F14" s="4">
         <v>42741</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1665,7 +1669,7 @@
       <c r="F15" s="4">
         <v>42744</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1684,7 +1688,7 @@
       <c r="F16" s="4">
         <v>42745</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1703,7 +1707,7 @@
       <c r="F17" s="4">
         <v>42746</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1722,7 +1726,7 @@
       <c r="F18" s="4">
         <v>42747</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1775,13 +1779,13 @@
       <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="12">
         <v>42753</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="12">
         <v>42754</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -1794,9 +1798,9 @@
       <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -1809,9 +1813,9 @@
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1824,13 +1828,13 @@
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="12">
         <v>42755</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="12">
         <v>42755</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -1843,9 +1847,9 @@
       <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -1978,10 +1982,10 @@
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="12">
         <v>42772</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="12">
         <v>42776</v>
       </c>
       <c r="G32" s="6"/>
@@ -1997,8 +2001,8 @@
       <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2012,8 +2016,8 @@
       <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2027,8 +2031,8 @@
       <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2042,8 +2046,8 @@
       <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2109,6 +2113,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G14:G18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E4:E9"/>
@@ -2122,14 +2134,6 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
